--- a/test_data/BB2017_specs_sheet.xlsx
+++ b/test_data/BB2017_specs_sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3551" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3553" uniqueCount="327">
   <si>
     <t xml:space="preserve">Team</t>
   </si>
@@ -642,31 +642,43 @@
     <t xml:space="preserve">Forest</t>
   </si>
   <si>
-    <t xml:space="preserve">The forest survey site</t>
+    <t xml:space="preserve">Keppel Creek</t>
   </si>
   <si>
     <t xml:space="preserve">Plains</t>
   </si>
   <si>
-    <t xml:space="preserve">The plains survey site</t>
+    <t xml:space="preserve">Dempster plains</t>
   </si>
   <si>
     <t xml:space="preserve">Coast</t>
   </si>
   <si>
-    <t xml:space="preserve">The coast survey site</t>
+    <t xml:space="preserve">Darty’s and Sundown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frankland River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquatic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Various sites – freshwater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S_Lo_Tname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NumberOfParticpants</t>
   </si>
   <si>
     <t xml:space="preserve">Tarkine Wilderness Lodge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S_Lo_Tname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NumberOfParticpants</t>
   </si>
   <si>
     <t xml:space="preserve">SurveySpot</t>
@@ -1273,7 +1285,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1283,10 +1295,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1395,7 +1403,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="8.53"/>
   </cols>
@@ -1471,34 +1479,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -1534,21 +1542,21 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>205</v>
@@ -1562,7 +1570,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>203</v>
@@ -1576,7 +1584,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>205</v>
@@ -1590,7 +1598,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>201</v>
@@ -1604,7 +1612,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>201</v>
@@ -1649,30 +1657,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>205</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>160</v>
@@ -1683,13 +1691,13 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>205</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>160</v>
@@ -1700,7 +1708,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>205</v>
@@ -1717,7 +1725,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>205</v>
@@ -1726,7 +1734,7 @@
         <v>151</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>11</v>
@@ -1734,16 +1742,16 @@
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>203</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>53</v>
@@ -1751,13 +1759,13 @@
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>205</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>162</v>
@@ -1768,7 +1776,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>201</v>
@@ -1785,7 +1793,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>201</v>
@@ -1825,61 +1833,61 @@
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>245</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>246</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>160</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>53</v>
@@ -1887,46 +1895,46 @@
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>162</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>251</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -1960,2050 +1968,2050 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="n">
+      <c r="A2" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B3" s="4" t="n">
+      <c r="A3" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="n">
+      <c r="C3" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B4" s="4" t="n">
+      <c r="A4" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B5" s="4" t="n">
+      <c r="A5" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B6" s="4" t="n">
+      <c r="A6" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B7" s="4" t="n">
+      <c r="A7" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="B8" s="4" t="n">
+      <c r="A8" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B9" s="4" t="n">
+      <c r="A9" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B10" s="4" t="n">
+      <c r="A10" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B11" s="4" t="n">
+      <c r="A11" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B12" s="4" t="n">
+      <c r="A12" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B12" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B13" s="4" t="n">
+      <c r="A13" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B14" s="4" t="n">
+      <c r="A14" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B14" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B15" s="4" t="n">
+      <c r="A15" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B16" s="4" t="n">
+      <c r="A16" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B17" s="4" t="n">
+      <c r="A17" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B17" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B18" s="4" t="n">
+      <c r="A18" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B18" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B19" s="4" t="n">
+      <c r="A19" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B19" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B20" s="4" t="n">
+      <c r="A20" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B20" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B21" s="4" t="n">
+      <c r="A21" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B21" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="B22" s="4" t="n">
+      <c r="A22" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B22" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="C22" s="4" t="n">
+      <c r="C22" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B23" s="4" t="n">
+      <c r="A23" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B23" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="C23" s="4" t="n">
+      <c r="C23" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B24" s="4" t="n">
+      <c r="A24" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B24" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="C24" s="4" t="n">
+      <c r="C24" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B25" s="4" t="n">
+      <c r="A25" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B25" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="C25" s="4" t="n">
+      <c r="C25" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B26" s="4" t="n">
+      <c r="A26" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B26" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="C26" s="4" t="n">
+      <c r="C26" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B27" s="4" t="n">
+      <c r="A27" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B27" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="C27" s="4" t="n">
+      <c r="C27" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B28" s="4" t="n">
+      <c r="A28" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B28" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="C28" s="4" t="n">
+      <c r="C28" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="B29" s="4" t="n">
+      <c r="A29" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B29" s="3" t="n">
         <v>28</v>
       </c>
-      <c r="C29" s="4" t="n">
+      <c r="C29" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="B30" s="4" t="n">
+      <c r="A30" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B30" s="3" t="n">
         <v>29</v>
       </c>
-      <c r="C30" s="4" t="n">
+      <c r="C30" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="B31" s="4" t="n">
+      <c r="A31" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B31" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="C31" s="4" t="n">
+      <c r="C31" s="3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B32" s="4" t="n">
+      <c r="A32" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B32" s="3" t="n">
         <v>31</v>
       </c>
-      <c r="C32" s="4" t="n">
+      <c r="C32" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B33" s="4" t="n">
+      <c r="A33" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B33" s="3" t="n">
         <v>32</v>
       </c>
-      <c r="C33" s="4" t="n">
+      <c r="C33" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B34" s="4" t="n">
+      <c r="A34" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B34" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="C34" s="4" t="n">
+      <c r="C34" s="3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="B35" s="4" t="n">
+      <c r="A35" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B35" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="C35" s="4" t="n">
+      <c r="C35" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B36" s="4" t="n">
+      <c r="A36" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B36" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="C36" s="4" t="n">
+      <c r="C36" s="3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B37" s="4" t="n">
+      <c r="A37" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B37" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="C37" s="4" t="n">
+      <c r="C37" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B38" s="4" t="n">
+      <c r="A38" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B38" s="3" t="n">
         <v>37</v>
       </c>
-      <c r="C38" s="4" t="n">
+      <c r="C38" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B39" s="4" t="n">
+      <c r="A39" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B39" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="C39" s="4" t="n">
+      <c r="C39" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B40" s="4" t="n">
+      <c r="A40" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B40" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="C40" s="4" t="n">
+      <c r="C40" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B41" s="4" t="n">
+      <c r="A41" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B41" s="3" t="n">
         <v>40</v>
       </c>
-      <c r="C41" s="4" t="n">
+      <c r="C41" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B42" s="4" t="n">
+      <c r="A42" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B42" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="C42" s="4" t="n">
+      <c r="C42" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B43" s="4" t="n">
+      <c r="A43" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B43" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="C43" s="4" t="n">
+      <c r="C43" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B44" s="4" t="n">
+      <c r="A44" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B44" s="3" t="n">
         <v>43</v>
       </c>
-      <c r="C44" s="4" t="n">
+      <c r="C44" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B45" s="4" t="n">
+      <c r="A45" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B45" s="3" t="n">
         <v>44</v>
       </c>
-      <c r="C45" s="4" t="n">
+      <c r="C45" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B46" s="4" t="n">
+      <c r="A46" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B46" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="C46" s="4" t="n">
+      <c r="C46" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B47" s="4" t="n">
+      <c r="A47" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B47" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="C47" s="4" t="n">
+      <c r="C47" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B48" s="4" t="n">
+      <c r="A48" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B48" s="3" t="n">
         <v>47</v>
       </c>
-      <c r="C48" s="4" t="n">
+      <c r="C48" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B49" s="4" t="n">
+      <c r="A49" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B49" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="C49" s="4" t="n">
+      <c r="C49" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B50" s="4" t="n">
+      <c r="A50" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B50" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="C50" s="4" t="n">
+      <c r="C50" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B51" s="4" t="n">
+      <c r="A51" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B51" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="C51" s="4" t="n">
+      <c r="C51" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B52" s="4" t="n">
+      <c r="A52" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B52" s="3" t="n">
         <v>51</v>
       </c>
-      <c r="C52" s="4" t="n">
+      <c r="C52" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B53" s="4" t="n">
+      <c r="A53" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B53" s="3" t="n">
         <v>52</v>
       </c>
-      <c r="C53" s="4" t="n">
+      <c r="C53" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B54" s="4" t="n">
+      <c r="A54" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B54" s="3" t="n">
         <v>53</v>
       </c>
-      <c r="C54" s="4" t="n">
+      <c r="C54" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B55" s="4" t="n">
+      <c r="A55" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B55" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="C55" s="4" t="n">
+      <c r="C55" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B56" s="4" t="n">
+      <c r="A56" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B56" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="C56" s="4" t="n">
+      <c r="C56" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B57" s="4" t="n">
+      <c r="A57" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B57" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="C57" s="4" t="n">
+      <c r="C57" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B58" s="4" t="n">
+      <c r="A58" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B58" s="3" t="n">
         <v>57</v>
       </c>
-      <c r="C58" s="4" t="n">
+      <c r="C58" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B59" s="4" t="n">
+      <c r="A59" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B59" s="3" t="n">
         <v>58</v>
       </c>
-      <c r="C59" s="4" t="n">
+      <c r="C59" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B60" s="4" t="n">
+      <c r="A60" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B60" s="3" t="n">
         <v>59</v>
       </c>
-      <c r="C60" s="4" t="n">
+      <c r="C60" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B61" s="4" t="n">
+      <c r="A61" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B61" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="C61" s="4" t="n">
+      <c r="C61" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B62" s="4" t="n">
+      <c r="A62" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B62" s="3" t="n">
         <v>61</v>
       </c>
-      <c r="C62" s="4" t="n">
+      <c r="C62" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="B63" s="4" t="n">
+      <c r="A63" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B63" s="3" t="n">
         <v>62</v>
       </c>
-      <c r="C63" s="4" t="n">
+      <c r="C63" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B64" s="4" t="n">
+      <c r="A64" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B64" s="3" t="n">
         <v>63</v>
       </c>
-      <c r="C64" s="4" t="n">
+      <c r="C64" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B65" s="4" t="n">
+      <c r="A65" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B65" s="3" t="n">
         <v>64</v>
       </c>
-      <c r="C65" s="4" t="n">
+      <c r="C65" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B66" s="4" t="n">
+      <c r="A66" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B66" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="C66" s="4" t="n">
+      <c r="C66" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B67" s="4" t="n">
+      <c r="A67" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B67" s="3" t="n">
         <v>66</v>
       </c>
-      <c r="C67" s="4" t="n">
+      <c r="C67" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B68" s="4" t="n">
+      <c r="A68" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B68" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="C68" s="4" t="n">
+      <c r="C68" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B69" s="4" t="n">
+      <c r="A69" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B69" s="3" t="n">
         <v>68</v>
       </c>
-      <c r="C69" s="4" t="n">
+      <c r="C69" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B70" s="4" t="n">
+      <c r="A70" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B70" s="3" t="n">
         <v>69</v>
       </c>
-      <c r="C70" s="4" t="n">
+      <c r="C70" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B71" s="4" t="n">
+      <c r="A71" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B71" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="C71" s="4" t="n">
+      <c r="C71" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B72" s="4" t="n">
+      <c r="A72" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B72" s="3" t="n">
         <v>71</v>
       </c>
-      <c r="C72" s="4" t="n">
+      <c r="C72" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="B73" s="4" t="n">
+      <c r="A73" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B73" s="3" t="n">
         <v>72</v>
       </c>
-      <c r="C73" s="4" t="n">
+      <c r="C73" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B74" s="4" t="n">
+      <c r="A74" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B74" s="3" t="n">
         <v>73</v>
       </c>
-      <c r="C74" s="4" t="n">
+      <c r="C74" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B75" s="4" t="n">
+      <c r="A75" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B75" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="C75" s="4" t="n">
+      <c r="C75" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B76" s="4" t="n">
+      <c r="A76" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B76" s="3" t="n">
         <v>75</v>
       </c>
-      <c r="C76" s="4" t="n">
+      <c r="C76" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B77" s="4" t="n">
+      <c r="A77" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B77" s="3" t="n">
         <v>76</v>
       </c>
-      <c r="C77" s="4" t="n">
+      <c r="C77" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B78" s="4" t="n">
+      <c r="A78" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B78" s="3" t="n">
         <v>77</v>
       </c>
-      <c r="C78" s="4" t="n">
+      <c r="C78" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="B79" s="4" t="n">
+      <c r="A79" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B79" s="3" t="n">
         <v>78</v>
       </c>
-      <c r="C79" s="4" t="n">
+      <c r="C79" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B80" s="4" t="n">
+      <c r="A80" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B80" s="3" t="n">
         <v>79</v>
       </c>
-      <c r="C80" s="4" t="n">
+      <c r="C80" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B81" s="4" t="n">
+      <c r="A81" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B81" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="C81" s="4" t="n">
+      <c r="C81" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B82" s="4" t="n">
+      <c r="A82" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B82" s="3" t="n">
         <v>81</v>
       </c>
-      <c r="C82" s="4" t="n">
+      <c r="C82" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B83" s="4" t="n">
+      <c r="A83" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B83" s="3" t="n">
         <v>82</v>
       </c>
-      <c r="C83" s="4" t="n">
+      <c r="C83" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B84" s="4" t="n">
+      <c r="A84" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B84" s="3" t="n">
         <v>83</v>
       </c>
-      <c r="C84" s="4" t="n">
+      <c r="C84" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B85" s="4" t="n">
+      <c r="A85" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B85" s="3" t="n">
         <v>84</v>
       </c>
-      <c r="C85" s="4" t="n">
+      <c r="C85" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B86" s="4" t="n">
+      <c r="A86" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B86" s="3" t="n">
         <v>85</v>
       </c>
-      <c r="C86" s="4" t="n">
+      <c r="C86" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="B87" s="4" t="n">
+      <c r="A87" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B87" s="3" t="n">
         <v>86</v>
       </c>
-      <c r="C87" s="4" t="n">
+      <c r="C87" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B88" s="4" t="n">
+      <c r="A88" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B88" s="3" t="n">
         <v>87</v>
       </c>
-      <c r="C88" s="4" t="n">
+      <c r="C88" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B89" s="4" t="n">
+      <c r="A89" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B89" s="3" t="n">
         <v>88</v>
       </c>
-      <c r="C89" s="4" t="n">
+      <c r="C89" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B90" s="4" t="n">
+      <c r="A90" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B90" s="3" t="n">
         <v>89</v>
       </c>
-      <c r="C90" s="4" t="n">
+      <c r="C90" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B91" s="4" t="n">
+      <c r="A91" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B91" s="3" t="n">
         <v>90</v>
       </c>
-      <c r="C91" s="4" t="n">
+      <c r="C91" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="B92" s="4" t="n">
+      <c r="A92" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B92" s="3" t="n">
         <v>91</v>
       </c>
-      <c r="C92" s="4" t="n">
+      <c r="C92" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B93" s="4" t="n">
+      <c r="A93" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B93" s="3" t="n">
         <v>92</v>
       </c>
-      <c r="C93" s="4" t="n">
+      <c r="C93" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B94" s="4" t="n">
+      <c r="A94" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B94" s="3" t="n">
         <v>93</v>
       </c>
-      <c r="C94" s="4" t="n">
+      <c r="C94" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B95" s="4" t="n">
+      <c r="A95" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B95" s="3" t="n">
         <v>94</v>
       </c>
-      <c r="C95" s="4" t="n">
+      <c r="C95" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="B96" s="4" t="n">
+      <c r="A96" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B96" s="3" t="n">
         <v>95</v>
       </c>
-      <c r="C96" s="4" t="n">
+      <c r="C96" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="B97" s="4" t="n">
+      <c r="A97" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B97" s="3" t="n">
         <v>96</v>
       </c>
-      <c r="C97" s="4" t="n">
+      <c r="C97" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="B98" s="4" t="n">
+      <c r="A98" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B98" s="3" t="n">
         <v>97</v>
       </c>
-      <c r="C98" s="4" t="n">
+      <c r="C98" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B99" s="4" t="n">
+      <c r="A99" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B99" s="3" t="n">
         <v>98</v>
       </c>
-      <c r="C99" s="4" t="n">
+      <c r="C99" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B100" s="4" t="n">
+      <c r="A100" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B100" s="3" t="n">
         <v>99</v>
       </c>
-      <c r="C100" s="4" t="n">
+      <c r="C100" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B101" s="4" t="n">
+      <c r="A101" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B101" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="C101" s="4" t="n">
+      <c r="C101" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B102" s="4" t="n">
+      <c r="A102" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B102" s="3" t="n">
         <v>101</v>
       </c>
-      <c r="C102" s="4" t="n">
+      <c r="C102" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B103" s="4" t="n">
+      <c r="A103" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B103" s="3" t="n">
         <v>102</v>
       </c>
-      <c r="C103" s="4" t="n">
+      <c r="C103" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B104" s="4" t="n">
+      <c r="A104" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B104" s="3" t="n">
         <v>103</v>
       </c>
-      <c r="C104" s="4" t="n">
+      <c r="C104" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B105" s="4" t="n">
+      <c r="A105" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B105" s="3" t="n">
         <v>104</v>
       </c>
-      <c r="C105" s="4" t="n">
+      <c r="C105" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B106" s="4" t="n">
+      <c r="A106" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B106" s="3" t="n">
         <v>105</v>
       </c>
-      <c r="C106" s="4" t="n">
+      <c r="C106" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B107" s="4" t="n">
+      <c r="A107" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B107" s="3" t="n">
         <v>106</v>
       </c>
-      <c r="C107" s="4" t="n">
+      <c r="C107" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B108" s="4" t="n">
+      <c r="A108" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B108" s="3" t="n">
         <v>107</v>
       </c>
-      <c r="C108" s="4" t="n">
+      <c r="C108" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B109" s="4" t="n">
+      <c r="A109" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B109" s="3" t="n">
         <v>108</v>
       </c>
-      <c r="C109" s="4" t="n">
+      <c r="C109" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B110" s="4" t="n">
+      <c r="A110" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B110" s="3" t="n">
         <v>109</v>
       </c>
-      <c r="C110" s="4" t="n">
+      <c r="C110" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B111" s="4" t="n">
+      <c r="A111" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B111" s="3" t="n">
         <v>110</v>
       </c>
-      <c r="C111" s="4" t="n">
+      <c r="C111" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B112" s="4" t="n">
+      <c r="A112" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B112" s="3" t="n">
         <v>111</v>
       </c>
-      <c r="C112" s="4" t="n">
+      <c r="C112" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B113" s="4" t="n">
+      <c r="A113" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B113" s="3" t="n">
         <v>112</v>
       </c>
-      <c r="C113" s="4" t="n">
+      <c r="C113" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="B114" s="4" t="n">
+      <c r="A114" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B114" s="3" t="n">
         <v>113</v>
       </c>
-      <c r="C114" s="4" t="n">
+      <c r="C114" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B115" s="4" t="n">
+      <c r="A115" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B115" s="3" t="n">
         <v>114</v>
       </c>
-      <c r="C115" s="4" t="n">
+      <c r="C115" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B116" s="4" t="n">
+      <c r="A116" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B116" s="3" t="n">
         <v>115</v>
       </c>
-      <c r="C116" s="4" t="n">
+      <c r="C116" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B117" s="4" t="n">
+      <c r="A117" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B117" s="3" t="n">
         <v>116</v>
       </c>
-      <c r="C117" s="4" t="n">
+      <c r="C117" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B118" s="4" t="n">
+      <c r="A118" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B118" s="3" t="n">
         <v>117</v>
       </c>
-      <c r="C118" s="4" t="n">
+      <c r="C118" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B119" s="4" t="n">
+      <c r="A119" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B119" s="3" t="n">
         <v>118</v>
       </c>
-      <c r="C119" s="4" t="n">
+      <c r="C119" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="B120" s="4" t="n">
+      <c r="A120" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B120" s="3" t="n">
         <v>119</v>
       </c>
-      <c r="C120" s="4" t="n">
+      <c r="C120" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B121" s="4" t="n">
+      <c r="A121" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B121" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="C121" s="4" t="n">
+      <c r="C121" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B122" s="4" t="n">
+      <c r="A122" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B122" s="3" t="n">
         <v>121</v>
       </c>
-      <c r="C122" s="4" t="n">
+      <c r="C122" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B123" s="4" t="n">
+      <c r="A123" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B123" s="3" t="n">
         <v>122</v>
       </c>
-      <c r="C123" s="4" t="n">
+      <c r="C123" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B124" s="4" t="n">
+      <c r="A124" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B124" s="3" t="n">
         <v>123</v>
       </c>
-      <c r="C124" s="4" t="n">
+      <c r="C124" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B125" s="4" t="n">
+      <c r="A125" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B125" s="3" t="n">
         <v>124</v>
       </c>
-      <c r="C125" s="4" t="n">
+      <c r="C125" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B126" s="4" t="n">
+      <c r="A126" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B126" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="C126" s="4" t="n">
+      <c r="C126" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B127" s="4" t="n">
+      <c r="A127" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B127" s="3" t="n">
         <v>126</v>
       </c>
-      <c r="C127" s="4" t="n">
+      <c r="C127" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B128" s="4" t="n">
+      <c r="A128" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B128" s="3" t="n">
         <v>127</v>
       </c>
-      <c r="C128" s="4" t="n">
+      <c r="C128" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B129" s="4" t="n">
+      <c r="A129" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B129" s="3" t="n">
         <v>128</v>
       </c>
-      <c r="C129" s="4" t="n">
+      <c r="C129" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B130" s="4" t="n">
+      <c r="A130" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B130" s="3" t="n">
         <v>129</v>
       </c>
-      <c r="C130" s="4" t="n">
+      <c r="C130" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B131" s="4" t="n">
+      <c r="A131" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B131" s="3" t="n">
         <v>130</v>
       </c>
-      <c r="C131" s="4" t="n">
+      <c r="C131" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B132" s="4" t="n">
+      <c r="A132" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B132" s="3" t="n">
         <v>131</v>
       </c>
-      <c r="C132" s="4" t="n">
+      <c r="C132" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B133" s="4" t="n">
+      <c r="A133" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B133" s="3" t="n">
         <v>132</v>
       </c>
-      <c r="C133" s="4" t="n">
+      <c r="C133" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B134" s="4" t="n">
+      <c r="A134" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B134" s="3" t="n">
         <v>133</v>
       </c>
-      <c r="C134" s="4" t="n">
+      <c r="C134" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B135" s="4" t="n">
+      <c r="A135" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B135" s="3" t="n">
         <v>134</v>
       </c>
-      <c r="C135" s="4" t="n">
+      <c r="C135" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B136" s="4" t="n">
+      <c r="A136" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B136" s="3" t="n">
         <v>135</v>
       </c>
-      <c r="C136" s="4" t="n">
+      <c r="C136" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B137" s="4" t="n">
+      <c r="A137" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B137" s="3" t="n">
         <v>136</v>
       </c>
-      <c r="C137" s="4" t="n">
+      <c r="C137" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B138" s="4" t="n">
+      <c r="A138" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B138" s="3" t="n">
         <v>137</v>
       </c>
-      <c r="C138" s="4" t="n">
+      <c r="C138" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B139" s="4" t="n">
+      <c r="A139" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B139" s="3" t="n">
         <v>138</v>
       </c>
-      <c r="C139" s="4" t="n">
+      <c r="C139" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B140" s="4" t="n">
+      <c r="A140" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B140" s="3" t="n">
         <v>139</v>
       </c>
-      <c r="C140" s="4" t="n">
+      <c r="C140" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B141" s="4" t="n">
+      <c r="A141" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B141" s="3" t="n">
         <v>140</v>
       </c>
-      <c r="C141" s="4" t="n">
+      <c r="C141" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B142" s="4" t="n">
+      <c r="A142" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B142" s="3" t="n">
         <v>141</v>
       </c>
-      <c r="C142" s="4" t="n">
+      <c r="C142" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B143" s="4" t="n">
+      <c r="A143" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B143" s="3" t="n">
         <v>142</v>
       </c>
-      <c r="C143" s="4" t="n">
+      <c r="C143" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B144" s="4" t="n">
+      <c r="A144" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B144" s="3" t="n">
         <v>143</v>
       </c>
-      <c r="C144" s="4" t="n">
+      <c r="C144" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B145" s="4" t="n">
+      <c r="A145" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B145" s="3" t="n">
         <v>144</v>
       </c>
-      <c r="C145" s="4" t="n">
+      <c r="C145" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B146" s="4" t="n">
+      <c r="A146" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B146" s="3" t="n">
         <v>145</v>
       </c>
-      <c r="C146" s="4" t="n">
+      <c r="C146" s="3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="B147" s="4" t="n">
+      <c r="A147" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B147" s="3" t="n">
         <v>146</v>
       </c>
-      <c r="C147" s="4" t="n">
+      <c r="C147" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="B148" s="4" t="n">
+      <c r="A148" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B148" s="3" t="n">
         <v>147</v>
       </c>
-      <c r="C148" s="4" t="n">
+      <c r="C148" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="B149" s="4" t="n">
+      <c r="A149" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B149" s="3" t="n">
         <v>148</v>
       </c>
-      <c r="C149" s="4" t="n">
+      <c r="C149" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="B150" s="4" t="n">
+      <c r="A150" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B150" s="3" t="n">
         <v>149</v>
       </c>
-      <c r="C150" s="4" t="n">
+      <c r="C150" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="B151" s="4" t="n">
+      <c r="A151" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B151" s="3" t="n">
         <v>150</v>
       </c>
-      <c r="C151" s="4" t="n">
+      <c r="C151" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="B152" s="4" t="n">
+      <c r="A152" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B152" s="3" t="n">
         <v>151</v>
       </c>
-      <c r="C152" s="4" t="n">
+      <c r="C152" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="B153" s="4" t="n">
+      <c r="A153" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B153" s="3" t="n">
         <v>152</v>
       </c>
-      <c r="C153" s="4" t="n">
+      <c r="C153" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B154" s="4" t="n">
+      <c r="A154" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B154" s="3" t="n">
         <v>153</v>
       </c>
-      <c r="C154" s="4" t="n">
+      <c r="C154" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B155" s="4" t="n">
+      <c r="A155" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B155" s="3" t="n">
         <v>154</v>
       </c>
-      <c r="C155" s="4" t="n">
+      <c r="C155" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="B156" s="4" t="n">
+      <c r="A156" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B156" s="3" t="n">
         <v>155</v>
       </c>
-      <c r="C156" s="4" t="n">
+      <c r="C156" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="B157" s="4" t="n">
+      <c r="A157" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B157" s="3" t="n">
         <v>156</v>
       </c>
-      <c r="C157" s="4" t="n">
+      <c r="C157" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="B158" s="4" t="n">
+      <c r="A158" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B158" s="3" t="n">
         <v>157</v>
       </c>
-      <c r="C158" s="4" t="n">
+      <c r="C158" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="B159" s="4" t="n">
+      <c r="A159" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B159" s="3" t="n">
         <v>158</v>
       </c>
-      <c r="C159" s="4" t="n">
+      <c r="C159" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="B160" s="4" t="n">
+      <c r="A160" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B160" s="3" t="n">
         <v>159</v>
       </c>
-      <c r="C160" s="4" t="n">
+      <c r="C160" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="B161" s="4" t="n">
+      <c r="A161" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B161" s="3" t="n">
         <v>160</v>
       </c>
-      <c r="C161" s="4" t="n">
+      <c r="C161" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="B162" s="4" t="n">
+      <c r="A162" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B162" s="3" t="n">
         <v>161</v>
       </c>
-      <c r="C162" s="4" t="n">
+      <c r="C162" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="B163" s="4" t="n">
+      <c r="A163" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B163" s="3" t="n">
         <v>162</v>
       </c>
-      <c r="C163" s="4" t="n">
+      <c r="C163" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="B164" s="4" t="n">
+      <c r="A164" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B164" s="3" t="n">
         <v>163</v>
       </c>
-      <c r="C164" s="4" t="n">
+      <c r="C164" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B165" s="4" t="n">
+      <c r="A165" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B165" s="3" t="n">
         <v>164</v>
       </c>
-      <c r="C165" s="4" t="n">
+      <c r="C165" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="B166" s="4" t="n">
+      <c r="A166" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B166" s="3" t="n">
         <v>165</v>
       </c>
-      <c r="C166" s="4" t="n">
+      <c r="C166" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="B167" s="4" t="n">
+      <c r="A167" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B167" s="3" t="n">
         <v>166</v>
       </c>
-      <c r="C167" s="4" t="n">
+      <c r="C167" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="B168" s="4" t="n">
+      <c r="A168" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B168" s="3" t="n">
         <v>167</v>
       </c>
-      <c r="C168" s="4" t="n">
+      <c r="C168" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="B169" s="4" t="n">
+      <c r="A169" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B169" s="3" t="n">
         <v>168</v>
       </c>
-      <c r="C169" s="4" t="n">
+      <c r="C169" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="B170" s="4" t="n">
+      <c r="A170" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B170" s="3" t="n">
         <v>169</v>
       </c>
-      <c r="C170" s="4" t="n">
+      <c r="C170" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="B171" s="4" t="n">
+      <c r="A171" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B171" s="3" t="n">
         <v>170</v>
       </c>
-      <c r="C171" s="4" t="n">
+      <c r="C171" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="B172" s="4" t="n">
+      <c r="A172" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B172" s="3" t="n">
         <v>171</v>
       </c>
-      <c r="C172" s="4" t="n">
+      <c r="C172" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="B173" s="4" t="n">
+      <c r="A173" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B173" s="3" t="n">
         <v>172</v>
       </c>
-      <c r="C173" s="4" t="n">
+      <c r="C173" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B174" s="4" t="n">
+      <c r="A174" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B174" s="3" t="n">
         <v>173</v>
       </c>
-      <c r="C174" s="4" t="n">
+      <c r="C174" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="B175" s="4" t="n">
+      <c r="A175" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B175" s="3" t="n">
         <v>174</v>
       </c>
-      <c r="C175" s="4" t="n">
+      <c r="C175" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="B176" s="4" t="n">
+      <c r="A176" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B176" s="3" t="n">
         <v>175</v>
       </c>
-      <c r="C176" s="4" t="n">
+      <c r="C176" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="B177" s="4" t="n">
+      <c r="A177" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B177" s="3" t="n">
         <v>176</v>
       </c>
-      <c r="C177" s="4" t="n">
+      <c r="C177" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="B178" s="4" t="n">
+      <c r="A178" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B178" s="3" t="n">
         <v>177</v>
       </c>
-      <c r="C178" s="4" t="n">
+      <c r="C178" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="B179" s="4" t="n">
+      <c r="A179" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B179" s="3" t="n">
         <v>178</v>
       </c>
-      <c r="C179" s="4" t="n">
+      <c r="C179" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="B180" s="4" t="n">
+      <c r="A180" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B180" s="3" t="n">
         <v>179</v>
       </c>
-      <c r="C180" s="4" t="n">
+      <c r="C180" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="B181" s="4" t="n">
+      <c r="A181" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B181" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="C181" s="4" t="n">
+      <c r="C181" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="B182" s="4" t="n">
+      <c r="A182" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B182" s="3" t="n">
         <v>181</v>
       </c>
-      <c r="C182" s="4" t="n">
+      <c r="C182" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="B183" s="4" t="n">
+      <c r="A183" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B183" s="3" t="n">
         <v>182</v>
       </c>
-      <c r="C183" s="4" t="n">
+      <c r="C183" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="B184" s="4" t="n">
+      <c r="A184" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B184" s="3" t="n">
         <v>183</v>
       </c>
-      <c r="C184" s="4" t="n">
+      <c r="C184" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="B185" s="4" t="n">
+      <c r="A185" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B185" s="3" t="n">
         <v>184</v>
       </c>
-      <c r="C185" s="4" t="n">
+      <c r="C185" s="3" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="B186" s="4" t="n">
+      <c r="A186" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B186" s="3" t="n">
         <v>185</v>
       </c>
-      <c r="C186" s="4" t="n">
+      <c r="C186" s="3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4025,7 +4033,7 @@
   </sheetPr>
   <dimension ref="A1:H956"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A44" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E82" activeCellId="0" sqref="E82"/>
     </sheetView>
   </sheetViews>
@@ -4054,7 +4062,7 @@
         <v>200</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>157</v>
@@ -4071,7 +4079,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D2" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A2," ",B2," ",C2)</f>
@@ -4099,7 +4107,7 @@
         <v>146</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D3" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A3," ",B3," ",C3)</f>
@@ -4127,7 +4135,7 @@
         <v>146</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D4" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A4," ",B4," ",C4)</f>
@@ -4155,7 +4163,7 @@
         <v>146</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D5" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A5," ",B5," ",C5)</f>
@@ -4183,7 +4191,7 @@
         <v>146</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D6" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A6," ",B6," ",C6)</f>
@@ -4211,7 +4219,7 @@
         <v>146</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D7" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A7," ",B7," ",C7)</f>
@@ -4239,7 +4247,7 @@
         <v>146</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D8" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A8," ",B8," ",C8)</f>
@@ -4267,7 +4275,7 @@
         <v>146</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D9" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A9," ",B9," ",C9)</f>
@@ -4289,7 +4297,7 @@
         <v>146</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D10" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A10," ",B10," ",C10)</f>
@@ -4311,7 +4319,7 @@
         <v>146</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D11" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A11," ",B11," ",C11)</f>
@@ -4333,7 +4341,7 @@
         <v>146</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D12" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A12," ",B12," ",C12)</f>
@@ -4355,7 +4363,7 @@
         <v>146</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D13" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A13," ",B13," ",C13)</f>
@@ -4377,7 +4385,7 @@
         <v>146</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D14" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A14," ",B14," ",C14)</f>
@@ -4399,7 +4407,7 @@
         <v>146</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D15" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A15," ",B15," ",C15)</f>
@@ -4421,7 +4429,7 @@
         <v>146</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D16" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A16," ",B16," ",C16)</f>
@@ -4443,7 +4451,7 @@
         <v>146</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D17" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A17," ",B17," ",C17)</f>
@@ -5389,7 +5397,7 @@
         <v>147</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D54" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A54," ",B54," ",C54)</f>
@@ -5417,7 +5425,7 @@
         <v>147</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D55" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A55," ",B55," ",C55)</f>
@@ -5445,7 +5453,7 @@
         <v>147</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D56" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A56," ",B56," ",C56)</f>
@@ -5473,7 +5481,7 @@
         <v>147</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D57" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A57," ",B57," ",C57)</f>
@@ -5501,7 +5509,7 @@
         <v>147</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D58" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A58," ",B58," ",C58)</f>
@@ -5529,7 +5537,7 @@
         <v>147</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D59" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A59," ",B59," ",C59)</f>
@@ -5557,7 +5565,7 @@
         <v>147</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D60" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A60," ",B60," ",C60)</f>
@@ -5585,7 +5593,7 @@
         <v>147</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D61" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A61," ",B61," ",C61)</f>
@@ -5613,7 +5621,7 @@
         <v>147</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D62" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A62," ",B62," ",C62)</f>
@@ -5635,7 +5643,7 @@
         <v>147</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D63" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A63," ",B63," ",C63)</f>
@@ -5657,7 +5665,7 @@
         <v>147</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D64" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A64," ",B64," ",C64)</f>
@@ -5679,7 +5687,7 @@
         <v>147</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D65" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A65," ",B65," ",C65)</f>
@@ -5701,7 +5709,7 @@
         <v>147</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D66" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A66," ",B66," ",C66)</f>
@@ -5723,7 +5731,7 @@
         <v>147</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D67" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A67," ",B67," ",C67)</f>
@@ -5745,7 +5753,7 @@
         <v>147</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D68" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A68," ",B68," ",C68)</f>
@@ -5767,7 +5775,7 @@
         <v>147</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D69" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(A69," ",B69," ",C69)</f>
@@ -19590,10 +19598,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19640,7 +19648,15 @@
         <v>207</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -19667,9 +19683,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="46.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="46.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="66.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.53"/>
@@ -19677,10 +19693,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>143</v>
@@ -19689,7 +19705,7 @@
         <v>200</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19703,7 +19719,7 @@
         <v>146</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E2" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(B2," ",C2," ",D2)</f>
@@ -19791,7 +19807,7 @@
         <v>147</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E6" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(B6," ",C6," ",D6)</f>
@@ -20492,7 +20508,7 @@
         <v>200</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>157</v>
@@ -20509,7 +20525,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>1</v>
@@ -20529,7 +20545,7 @@
         <v>146</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>2</v>
@@ -20549,7 +20565,7 @@
         <v>146</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>3</v>
@@ -20569,7 +20585,7 @@
         <v>146</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>4</v>
@@ -20589,7 +20605,7 @@
         <v>146</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>5</v>
@@ -20609,7 +20625,7 @@
         <v>146</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>6</v>
@@ -20629,7 +20645,7 @@
         <v>146</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>7</v>
@@ -20649,7 +20665,7 @@
         <v>146</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>8</v>
@@ -20663,7 +20679,7 @@
         <v>146</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>9</v>
@@ -20677,7 +20693,7 @@
         <v>146</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>10</v>
@@ -20691,7 +20707,7 @@
         <v>146</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>11</v>
@@ -20705,7 +20721,7 @@
         <v>146</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>12</v>
@@ -20719,7 +20735,7 @@
         <v>146</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>13</v>
@@ -20733,7 +20749,7 @@
         <v>146</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>14</v>
@@ -20747,7 +20763,7 @@
         <v>146</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>15</v>
@@ -20761,7 +20777,7 @@
         <v>146</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>16</v>
@@ -21411,7 +21427,7 @@
         <v>147</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D54" s="0" t="n">
         <v>1</v>
@@ -21431,7 +21447,7 @@
         <v>147</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D55" s="0" t="n">
         <v>2</v>
@@ -21451,7 +21467,7 @@
         <v>147</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D56" s="0" t="n">
         <v>3</v>
@@ -21471,7 +21487,7 @@
         <v>147</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D57" s="0" t="n">
         <v>4</v>
@@ -21491,7 +21507,7 @@
         <v>147</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D58" s="0" t="n">
         <v>5</v>
@@ -21511,7 +21527,7 @@
         <v>147</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D59" s="0" t="n">
         <v>6</v>
@@ -21531,7 +21547,7 @@
         <v>147</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D60" s="0" t="n">
         <v>7</v>
@@ -21551,7 +21567,7 @@
         <v>147</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D61" s="0" t="n">
         <v>8</v>
@@ -21571,7 +21587,7 @@
         <v>147</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D62" s="0" t="n">
         <v>9</v>
@@ -21585,7 +21601,7 @@
         <v>147</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D63" s="0" t="n">
         <v>10</v>
@@ -21599,7 +21615,7 @@
         <v>147</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D64" s="0" t="n">
         <v>11</v>
@@ -21613,7 +21629,7 @@
         <v>147</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D65" s="0" t="n">
         <v>12</v>
@@ -21627,7 +21643,7 @@
         <v>147</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D66" s="0" t="n">
         <v>13</v>
@@ -21641,7 +21657,7 @@
         <v>147</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D67" s="0" t="n">
         <v>14</v>
@@ -21655,7 +21671,7 @@
         <v>147</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D68" s="0" t="n">
         <v>15</v>
@@ -21669,7 +21685,7 @@
         <v>147</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D69" s="0" t="n">
         <v>16</v>
@@ -26424,15 +26440,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>12</v>
@@ -26440,7 +26456,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>12</v>
@@ -26448,7 +26464,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>12</v>
@@ -26456,7 +26472,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>12</v>
@@ -26464,7 +26480,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>8</v>
@@ -26472,7 +26488,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>8</v>
@@ -26480,7 +26496,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>5</v>
@@ -26488,7 +26504,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>5</v>
@@ -26496,7 +26512,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>4</v>
@@ -26504,7 +26520,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>4</v>
